--- a/raw data/Betting Against Beta Original Paper Data.xlsx
+++ b/raw data/Betting Against Beta Original Paper Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maria\2A\stat_app\VIX_predictions\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB7D231-33B4-4B9E-ADA0-547F8EB4ACED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F179F2-B7F5-48D3-8596-D6BECEFC0711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -771,7 +771,7 @@
   <dimension ref="A1:L1036"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A626" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
